--- a/biology/Botanique/Licmophorales/Licmophorales.xlsx
+++ b/biology/Botanique/Licmophorales/Licmophorales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Licmophorales sont un ordre d'algues de l'embranchement des Bacillariophyta  et de la classe des Bacillariophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Licmophorales a été créé en 1990 par le botaniste et phycologue britannique Frank Eric Round (d) (1927–2010)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Licmophorales a été créé en 1990 par le botaniste et phycologue britannique Frank Eric Round (d) (1927–2010).
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules des Licmophorales sont hétérovalvaires (valves de formes différentes) et il y a ainsi un frustule « arrière » qui est celui qui possède une structure appelée « rimoportule »[note 1].
 Les frustules sont également hétéropolaires (sommets de formes différentes) et sont donc composées d'un côté gauche et d'un côté droit. 
-L'épithèque du genre Licmophora (c'est-à-dire la moitié mature du frustule) a un cingulum[note 2] comprenant cinq copules (une valvocopule et quatre plèvres)[2].
+L'épithèque du genre Licmophora (c'est-à-dire la moitié mature du frustule) a un cingulum[note 2] comprenant cinq copules (une valvocopule et quatre plèvres).
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (4 mai 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (4 mai 2022) :
 Licmophoraceae Kützing, 1844
 Ulnariaceae E.J.Cox, 2015</t>
         </is>
